--- a/fichiers_xls/listing_par_etape - Copie.xlsx
+++ b/fichiers_xls/listing_par_etape - Copie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>

--- a/fichiers_xls/listing_par_etape - Copie.xlsx
+++ b/fichiers_xls/listing_par_etape - Copie.xlsx
@@ -69,11 +69,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">

--- a/fichiers_xls/listing_par_etape - Copie.xlsx
+++ b/fichiers_xls/listing_par_etape - Copie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
